--- a/maddenData/2014/roster_update_5_week_5.xlsx
+++ b/maddenData/2014/roster_update_5_week_5.xlsx
@@ -1,16 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25516"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15825" windowHeight="11175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15820" windowHeight="11180"/>
   </bookViews>
   <sheets>
     <sheet name="Madden 15 - Roster Update #5" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -1848,9 +1851,6 @@
     <t xml:space="preserve"> AWR: 73 (+1);  CTH: 71 (+2);  CAR: 77 (+3);  ELUS: 65 (+1);  SFA: 89 (-1);  SPM: 87 (-2);  JKM: 80 (+1)</t>
   </si>
   <si>
-    <t>J.T.	 Thomas (52)</t>
-  </si>
-  <si>
     <t>MLB (Was LOLB)</t>
   </si>
   <si>
@@ -4186,6 +4186,9 @@
   </si>
   <si>
     <t>DT:2 (Was None)</t>
+  </si>
+  <si>
+    <t>J.T.	 Thomas III (52)</t>
   </si>
 </sst>
 </file>
@@ -4302,7 +4305,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4337,7 +4340,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4514,7 +4517,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4524,20 +4527,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G612"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
+      <selection activeCell="A291" sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="148.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="148.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4560,7 +4565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>450</v>
       </c>
@@ -4583,9 +4588,9 @@
         <v>452</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B3" t="s">
         <v>72</v>
@@ -4603,10 +4608,10 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>374</v>
       </c>
@@ -4617,7 +4622,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E4">
         <v>78</v>
@@ -4626,12 +4631,12 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B5" t="s">
         <v>72</v>
@@ -4649,10 +4654,10 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>386</v>
       </c>
@@ -4672,10 +4677,10 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>384</v>
       </c>
@@ -4695,10 +4700,10 @@
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>168</v>
       </c>
@@ -4718,9 +4723,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B9" t="s">
         <v>72</v>
@@ -4738,10 +4743,10 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>258</v>
       </c>
@@ -4761,12 +4766,12 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B11" t="s">
         <v>72</v>
@@ -4784,12 +4789,12 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B12" t="s">
         <v>72</v>
@@ -4807,10 +4812,10 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>412</v>
       </c>
@@ -4830,10 +4835,10 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>402</v>
       </c>
@@ -4844,7 +4849,7 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="E14">
         <v>76</v>
@@ -4853,9 +4858,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B15" t="s">
         <v>72</v>
@@ -4864,7 +4869,7 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="E15">
         <v>69</v>
@@ -4873,9 +4878,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B16" t="s">
         <v>72</v>
@@ -4893,10 +4898,10 @@
         <v>-1</v>
       </c>
       <c r="G16" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>368</v>
       </c>
@@ -4916,12 +4921,12 @@
         <v>-1</v>
       </c>
       <c r="G17" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B18" t="s">
         <v>72</v>
@@ -4939,10 +4944,10 @@
         <v>-1</v>
       </c>
       <c r="G18" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>365</v>
       </c>
@@ -4962,12 +4967,12 @@
         <v>-1</v>
       </c>
       <c r="G19" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B20" t="s">
         <v>72</v>
@@ -4985,10 +4990,10 @@
         <v>-1</v>
       </c>
       <c r="G20" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>407</v>
       </c>
@@ -5008,10 +5013,10 @@
         <v>5</v>
       </c>
       <c r="G21" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>367</v>
       </c>
@@ -5034,9 +5039,9 @@
         <v>479</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -5054,10 +5059,10 @@
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>208</v>
       </c>
@@ -5080,7 +5085,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>487</v>
       </c>
@@ -5103,9 +5108,9 @@
         <v>488</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -5123,12 +5128,12 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -5146,10 +5151,10 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>414</v>
       </c>
@@ -5160,7 +5165,7 @@
         <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E28">
         <v>76</v>
@@ -5169,7 +5174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>371</v>
       </c>
@@ -5192,7 +5197,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>507</v>
       </c>
@@ -5215,7 +5220,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>541</v>
       </c>
@@ -5238,7 +5243,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>562</v>
       </c>
@@ -5261,9 +5266,9 @@
         <v>563</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
@@ -5281,12 +5286,12 @@
         <v>-1</v>
       </c>
       <c r="G33" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B34" t="s">
         <v>26</v>
@@ -5304,10 +5309,10 @@
         <v>-1</v>
       </c>
       <c r="G34" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>158</v>
       </c>
@@ -5327,10 +5332,10 @@
         <v>-1</v>
       </c>
       <c r="G35" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>234</v>
       </c>
@@ -5350,12 +5355,12 @@
         <v>-1</v>
       </c>
       <c r="G36" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B37" t="s">
         <v>26</v>
@@ -5373,10 +5378,10 @@
         <v>-1</v>
       </c>
       <c r="G37" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>247</v>
       </c>
@@ -5396,10 +5401,10 @@
         <v>-1</v>
       </c>
       <c r="G38" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>103</v>
       </c>
@@ -5422,18 +5427,18 @@
         <v>533</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B40" t="s">
         <v>1289</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1290</v>
       </c>
       <c r="C40" t="s">
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="E40">
         <v>65</v>
@@ -5442,18 +5447,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B41" t="s">
         <v>1351</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1352</v>
       </c>
       <c r="C41" t="s">
         <v>23</v>
       </c>
       <c r="D41" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="E41">
         <v>75</v>
@@ -5462,9 +5467,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B42" t="s">
         <v>57</v>
@@ -5473,7 +5478,7 @@
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="E42">
         <v>81</v>
@@ -5482,9 +5487,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B43" t="s">
         <v>57</v>
@@ -5493,7 +5498,7 @@
         <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="E43">
         <v>76</v>
@@ -5502,9 +5507,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B44" t="s">
         <v>57</v>
@@ -5513,7 +5518,7 @@
         <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="E44">
         <v>59</v>
@@ -5522,7 +5527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>564</v>
       </c>
@@ -5545,9 +5550,9 @@
         <v>565</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B46" t="s">
         <v>14</v>
@@ -5565,10 +5570,10 @@
         <v>2</v>
       </c>
       <c r="G46" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>225</v>
       </c>
@@ -5591,7 +5596,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>226</v>
       </c>
@@ -5614,7 +5619,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>297</v>
       </c>
@@ -5637,7 +5642,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>543</v>
       </c>
@@ -5660,9 +5665,9 @@
         <v>544</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B51" t="s">
         <v>14</v>
@@ -5680,10 +5685,10 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>255</v>
       </c>
@@ -5703,10 +5708,10 @@
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>249</v>
       </c>
@@ -5726,12 +5731,12 @@
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B54" t="s">
         <v>14</v>
@@ -5749,9 +5754,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B55" t="s">
         <v>14</v>
@@ -5769,7 +5774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>522</v>
       </c>
@@ -5792,7 +5797,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>551</v>
       </c>
@@ -5815,9 +5820,9 @@
         <v>552</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B58" t="s">
         <v>14</v>
@@ -5835,10 +5840,10 @@
         <v>-1</v>
       </c>
       <c r="G58" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>336</v>
       </c>
@@ -5858,10 +5863,10 @@
         <v>-1</v>
       </c>
       <c r="G59" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>167</v>
       </c>
@@ -5881,12 +5886,12 @@
         <v>-1</v>
       </c>
       <c r="G60" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B61" t="s">
         <v>14</v>
@@ -5904,12 +5909,12 @@
         <v>-1</v>
       </c>
       <c r="G61" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
         <v>876</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>877</v>
       </c>
       <c r="B62" t="s">
         <v>14</v>
@@ -5927,10 +5932,10 @@
         <v>-1</v>
       </c>
       <c r="G62" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>108</v>
       </c>
@@ -5950,10 +5955,10 @@
         <v>-1</v>
       </c>
       <c r="G63" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>180</v>
       </c>
@@ -5973,10 +5978,10 @@
         <v>-1</v>
       </c>
       <c r="G64" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>281</v>
       </c>
@@ -5999,7 +6004,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>378</v>
       </c>
@@ -6010,7 +6015,7 @@
         <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E66">
         <v>88</v>
@@ -6019,9 +6024,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B67" t="s">
         <v>22</v>
@@ -6030,7 +6035,7 @@
         <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E67">
         <v>72</v>
@@ -6039,7 +6044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>207</v>
       </c>
@@ -6050,7 +6055,7 @@
         <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="E68">
         <v>75</v>
@@ -6059,7 +6064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>106</v>
       </c>
@@ -6070,7 +6075,7 @@
         <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="E69">
         <v>74</v>
@@ -6079,9 +6084,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B70" t="s">
         <v>38</v>
@@ -6090,7 +6095,7 @@
         <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="E70">
         <v>65</v>
@@ -6099,7 +6104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>484</v>
       </c>
@@ -6122,9 +6127,9 @@
         <v>485</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B72" t="s">
         <v>33</v>
@@ -6142,10 +6147,10 @@
         <v>2</v>
       </c>
       <c r="G72" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>257</v>
       </c>
@@ -6165,10 +6170,10 @@
         <v>2</v>
       </c>
       <c r="G73" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>144</v>
       </c>
@@ -6191,9 +6196,9 @@
         <v>574</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B75" t="s">
         <v>33</v>
@@ -6211,12 +6216,12 @@
         <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B76" t="s">
         <v>33</v>
@@ -6234,12 +6239,12 @@
         <v>1</v>
       </c>
       <c r="G76" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B77" t="s">
         <v>33</v>
@@ -6257,12 +6262,12 @@
         <v>1</v>
       </c>
       <c r="G77" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B78" t="s">
         <v>33</v>
@@ -6280,10 +6285,10 @@
         <v>1</v>
       </c>
       <c r="G78" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>238</v>
       </c>
@@ -6303,12 +6308,12 @@
         <v>1</v>
       </c>
       <c r="G79" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B80" t="s">
         <v>33</v>
@@ -6317,7 +6322,7 @@
         <v>11</v>
       </c>
       <c r="D80" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E80">
         <v>79</v>
@@ -6326,12 +6331,12 @@
         <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B81" t="s">
         <v>33</v>
@@ -6340,7 +6345,7 @@
         <v>44</v>
       </c>
       <c r="D81" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E81">
         <v>64</v>
@@ -6349,12 +6354,12 @@
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B82" t="s">
         <v>33</v>
@@ -6372,12 +6377,12 @@
         <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B83" t="s">
         <v>33</v>
@@ -6386,7 +6391,7 @@
         <v>64</v>
       </c>
       <c r="D83" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="E83">
         <v>71</v>
@@ -6395,7 +6400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>431</v>
       </c>
@@ -6406,7 +6411,7 @@
         <v>11</v>
       </c>
       <c r="D84" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="E84">
         <v>74</v>
@@ -6415,7 +6420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>304</v>
       </c>
@@ -6435,12 +6440,12 @@
         <v>-1</v>
       </c>
       <c r="G85" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B86" t="s">
         <v>33</v>
@@ -6458,10 +6463,10 @@
         <v>-1</v>
       </c>
       <c r="G86" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>169</v>
       </c>
@@ -6481,10 +6486,10 @@
         <v>-1</v>
       </c>
       <c r="G87" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>289</v>
       </c>
@@ -6507,7 +6512,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>586</v>
       </c>
@@ -6530,9 +6535,9 @@
         <v>587</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B90" t="s">
         <v>45</v>
@@ -6541,7 +6546,7 @@
         <v>64</v>
       </c>
       <c r="D90" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="E90">
         <v>84</v>
@@ -6550,7 +6555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>219</v>
       </c>
@@ -6570,9 +6575,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B92" t="s">
         <v>45</v>
@@ -6581,7 +6586,7 @@
         <v>64</v>
       </c>
       <c r="D92" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="E92">
         <v>64</v>
@@ -6590,9 +6595,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B93" t="s">
         <v>185</v>
@@ -6610,12 +6615,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B94" t="s">
         <v>1270</v>
-      </c>
-      <c r="B94" t="s">
-        <v>1271</v>
       </c>
       <c r="C94" t="s">
         <v>34</v>
@@ -6630,7 +6635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>299</v>
       </c>
@@ -6653,7 +6658,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>227</v>
       </c>
@@ -6673,10 +6678,10 @@
         <v>2</v>
       </c>
       <c r="G96" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>418</v>
       </c>
@@ -6696,10 +6701,10 @@
         <v>2</v>
       </c>
       <c r="G97" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>211</v>
       </c>
@@ -6719,12 +6724,12 @@
         <v>1</v>
       </c>
       <c r="G98" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B99" t="s">
         <v>46</v>
@@ -6742,10 +6747,10 @@
         <v>1</v>
       </c>
       <c r="G99" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
         <v>183</v>
       </c>
@@ -6765,10 +6770,10 @@
         <v>1</v>
       </c>
       <c r="G100" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>182</v>
       </c>
@@ -6788,10 +6793,10 @@
         <v>1</v>
       </c>
       <c r="G101" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>300</v>
       </c>
@@ -6811,12 +6816,12 @@
         <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B103" t="s">
         <v>46</v>
@@ -6834,10 +6839,10 @@
         <v>1</v>
       </c>
       <c r="G103" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>321</v>
       </c>
@@ -6857,12 +6862,12 @@
         <v>1</v>
       </c>
       <c r="G104" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B105" t="s">
         <v>46</v>
@@ -6880,10 +6885,10 @@
         <v>1</v>
       </c>
       <c r="G105" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>188</v>
       </c>
@@ -6903,10 +6908,10 @@
         <v>1</v>
       </c>
       <c r="G106" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>422</v>
       </c>
@@ -6926,12 +6931,12 @@
         <v>1</v>
       </c>
       <c r="G107" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B108" t="s">
         <v>46</v>
@@ -6949,10 +6954,10 @@
         <v>0</v>
       </c>
       <c r="G108" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
         <v>275</v>
       </c>
@@ -6972,10 +6977,10 @@
         <v>-1</v>
       </c>
       <c r="G109" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>291</v>
       </c>
@@ -6995,12 +7000,12 @@
         <v>-1</v>
       </c>
       <c r="G110" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B111" t="s">
         <v>46</v>
@@ -7018,12 +7023,12 @@
         <v>-1</v>
       </c>
       <c r="G111" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B112" t="s">
         <v>46</v>
@@ -7041,12 +7046,12 @@
         <v>-1</v>
       </c>
       <c r="G112" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B113" t="s">
         <v>46</v>
@@ -7064,12 +7069,12 @@
         <v>-1</v>
       </c>
       <c r="G113" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" t="s">
         <v>1098</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>1099</v>
       </c>
       <c r="B114" t="s">
         <v>46</v>
@@ -7087,12 +7092,12 @@
         <v>-1</v>
       </c>
       <c r="G114" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B115" t="s">
         <v>46</v>
@@ -7110,12 +7115,12 @@
         <v>-1</v>
       </c>
       <c r="G115" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B116" t="s">
         <v>101</v>
@@ -7133,7 +7138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
         <v>80</v>
       </c>
@@ -7144,7 +7149,7 @@
         <v>65</v>
       </c>
       <c r="D117" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E117">
         <v>75</v>
@@ -7153,10 +7158,10 @@
         <v>4</v>
       </c>
       <c r="G117" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
         <v>400</v>
       </c>
@@ -7176,12 +7181,12 @@
         <v>3</v>
       </c>
       <c r="G118" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B119" t="s">
         <v>49</v>
@@ -7199,10 +7204,10 @@
         <v>3</v>
       </c>
       <c r="G119" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
         <v>156</v>
       </c>
@@ -7222,10 +7227,10 @@
         <v>3</v>
       </c>
       <c r="G120" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
         <v>415</v>
       </c>
@@ -7245,10 +7250,10 @@
         <v>2</v>
       </c>
       <c r="G121" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
         <v>399</v>
       </c>
@@ -7268,12 +7273,12 @@
         <v>2</v>
       </c>
       <c r="G122" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B123" t="s">
         <v>49</v>
@@ -7291,12 +7296,12 @@
         <v>1</v>
       </c>
       <c r="G123" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B124" t="s">
         <v>49</v>
@@ -7314,10 +7319,10 @@
         <v>1</v>
       </c>
       <c r="G124" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
         <v>113</v>
       </c>
@@ -7337,10 +7342,10 @@
         <v>1</v>
       </c>
       <c r="G125" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
         <v>214</v>
       </c>
@@ -7360,12 +7365,12 @@
         <v>1</v>
       </c>
       <c r="G126" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B127" t="s">
         <v>49</v>
@@ -7383,10 +7388,10 @@
         <v>1</v>
       </c>
       <c r="G127" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
         <v>383</v>
       </c>
@@ -7406,12 +7411,12 @@
         <v>1</v>
       </c>
       <c r="G128" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B129" t="s">
         <v>49</v>
@@ -7429,10 +7434,10 @@
         <v>1</v>
       </c>
       <c r="G129" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130" t="s">
         <v>121</v>
       </c>
@@ -7452,12 +7457,12 @@
         <v>1</v>
       </c>
       <c r="G130" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B131" t="s">
         <v>49</v>
@@ -7466,7 +7471,7 @@
         <v>44</v>
       </c>
       <c r="D131" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E131">
         <v>60</v>
@@ -7475,12 +7480,12 @@
         <v>1</v>
       </c>
       <c r="G131" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B132" t="s">
         <v>49</v>
@@ -7498,10 +7503,10 @@
         <v>1</v>
       </c>
       <c r="G132" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" t="s">
         <v>189</v>
       </c>
@@ -7521,12 +7526,12 @@
         <v>1</v>
       </c>
       <c r="G133" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B134" t="s">
         <v>49</v>
@@ -7544,10 +7549,10 @@
         <v>0</v>
       </c>
       <c r="G134" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135" t="s">
         <v>236</v>
       </c>
@@ -7567,12 +7572,12 @@
         <v>0</v>
       </c>
       <c r="G135" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B136" t="s">
         <v>49</v>
@@ -7581,7 +7586,7 @@
         <v>65</v>
       </c>
       <c r="D136" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="E136">
         <v>77</v>
@@ -7590,7 +7595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7">
       <c r="A137" t="s">
         <v>138</v>
       </c>
@@ -7610,10 +7615,10 @@
         <v>-1</v>
       </c>
       <c r="G137" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138" t="s">
         <v>190</v>
       </c>
@@ -7633,10 +7638,10 @@
         <v>-1</v>
       </c>
       <c r="G138" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139" t="s">
         <v>397</v>
       </c>
@@ -7656,12 +7661,12 @@
         <v>-1</v>
       </c>
       <c r="G139" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B140" t="s">
         <v>49</v>
@@ -7679,12 +7684,12 @@
         <v>-1</v>
       </c>
       <c r="G140" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B141" t="s">
         <v>51</v>
@@ -7702,10 +7707,10 @@
         <v>2</v>
       </c>
       <c r="G141" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142" t="s">
         <v>404</v>
       </c>
@@ -7725,10 +7730,10 @@
         <v>2</v>
       </c>
       <c r="G142" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143" t="s">
         <v>477</v>
       </c>
@@ -7751,7 +7756,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7">
       <c r="A144" t="s">
         <v>287</v>
       </c>
@@ -7774,9 +7779,9 @@
         <v>501</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7">
       <c r="A145" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B145" t="s">
         <v>51</v>
@@ -7794,10 +7799,10 @@
         <v>1</v>
       </c>
       <c r="G145" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146" t="s">
         <v>316</v>
       </c>
@@ -7817,12 +7822,12 @@
         <v>1</v>
       </c>
       <c r="G146" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B147" t="s">
         <v>51</v>
@@ -7840,10 +7845,10 @@
         <v>1</v>
       </c>
       <c r="G147" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148" t="s">
         <v>347</v>
       </c>
@@ -7863,10 +7868,10 @@
         <v>1</v>
       </c>
       <c r="G148" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149" t="s">
         <v>280</v>
       </c>
@@ -7889,9 +7894,9 @@
         <v>497</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7">
       <c r="A150" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B150" t="s">
         <v>51</v>
@@ -7900,7 +7905,7 @@
         <v>28</v>
       </c>
       <c r="D150" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="E150">
         <v>71</v>
@@ -7909,7 +7914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7">
       <c r="A151" t="s">
         <v>312</v>
       </c>
@@ -7920,7 +7925,7 @@
         <v>28</v>
       </c>
       <c r="D151" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E151">
         <v>82</v>
@@ -7929,9 +7934,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7">
       <c r="A152" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B152" t="s">
         <v>51</v>
@@ -7949,7 +7954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7">
       <c r="A153" t="s">
         <v>457</v>
       </c>
@@ -7972,7 +7977,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7">
       <c r="A154" t="s">
         <v>332</v>
       </c>
@@ -7992,10 +7997,10 @@
         <v>-1</v>
       </c>
       <c r="G154" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155" t="s">
         <v>204</v>
       </c>
@@ -8015,10 +8020,10 @@
         <v>2</v>
       </c>
       <c r="G155" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156" t="s">
         <v>24</v>
       </c>
@@ -8038,12 +8043,12 @@
         <v>2</v>
       </c>
       <c r="G156" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B157" t="s">
         <v>20</v>
@@ -8061,10 +8066,10 @@
         <v>2</v>
       </c>
       <c r="G157" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158" t="s">
         <v>387</v>
       </c>
@@ -8084,12 +8089,12 @@
         <v>2</v>
       </c>
       <c r="G158" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B159" t="s">
         <v>20</v>
@@ -8107,10 +8112,10 @@
         <v>2</v>
       </c>
       <c r="G159" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160" t="s">
         <v>394</v>
       </c>
@@ -8130,12 +8135,12 @@
         <v>2</v>
       </c>
       <c r="G160" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B161" t="s">
         <v>20</v>
@@ -8153,10 +8158,10 @@
         <v>2</v>
       </c>
       <c r="G161" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162" t="s">
         <v>369</v>
       </c>
@@ -8176,10 +8181,10 @@
         <v>1</v>
       </c>
       <c r="G162" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163" t="s">
         <v>372</v>
       </c>
@@ -8199,12 +8204,12 @@
         <v>1</v>
       </c>
       <c r="G163" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B164" t="s">
         <v>20</v>
@@ -8222,10 +8227,10 @@
         <v>1</v>
       </c>
       <c r="G164" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165" t="s">
         <v>366</v>
       </c>
@@ -8245,10 +8250,10 @@
         <v>1</v>
       </c>
       <c r="G165" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
       <c r="A166" t="s">
         <v>147</v>
       </c>
@@ -8268,12 +8273,12 @@
         <v>1</v>
       </c>
       <c r="G166" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B167" t="s">
         <v>20</v>
@@ -8291,12 +8296,12 @@
         <v>1</v>
       </c>
       <c r="G167" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
       <c r="A168" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B168" t="s">
         <v>20</v>
@@ -8314,12 +8319,12 @@
         <v>1</v>
       </c>
       <c r="G168" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
       <c r="A169" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B169" t="s">
         <v>20</v>
@@ -8337,10 +8342,10 @@
         <v>1</v>
       </c>
       <c r="G169" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
       <c r="A170" t="s">
         <v>239</v>
       </c>
@@ -8360,10 +8365,10 @@
         <v>1</v>
       </c>
       <c r="G170" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
       <c r="A171" t="s">
         <v>392</v>
       </c>
@@ -8374,7 +8379,7 @@
         <v>15</v>
       </c>
       <c r="D171" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E171">
         <v>75</v>
@@ -8383,7 +8388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7">
       <c r="A172" t="s">
         <v>423</v>
       </c>
@@ -8403,7 +8408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7">
       <c r="A173" t="s">
         <v>142</v>
       </c>
@@ -8426,9 +8431,9 @@
         <v>561</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7">
       <c r="A174" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B174" t="s">
         <v>53</v>
@@ -8446,10 +8451,10 @@
         <v>2</v>
       </c>
       <c r="G174" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175" t="s">
         <v>459</v>
       </c>
@@ -8472,7 +8477,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7">
       <c r="A176" t="s">
         <v>502</v>
       </c>
@@ -8495,7 +8500,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7">
       <c r="A177" t="s">
         <v>194</v>
       </c>
@@ -8518,7 +8523,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7">
       <c r="A178" t="s">
         <v>145</v>
       </c>
@@ -8541,7 +8546,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7">
       <c r="A179" t="s">
         <v>607</v>
       </c>
@@ -8564,7 +8569,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7">
       <c r="A180" t="s">
         <v>196</v>
       </c>
@@ -8584,12 +8589,12 @@
         <v>1</v>
       </c>
       <c r="G180" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
       <c r="A181" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B181" t="s">
         <v>53</v>
@@ -8607,10 +8612,10 @@
         <v>1</v>
       </c>
       <c r="G181" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
       <c r="A182" t="s">
         <v>159</v>
       </c>
@@ -8621,7 +8626,7 @@
         <v>18</v>
       </c>
       <c r="D182" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E182">
         <v>73</v>
@@ -8630,10 +8635,10 @@
         <v>1</v>
       </c>
       <c r="G182" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
       <c r="A183" t="s">
         <v>393</v>
       </c>
@@ -8653,10 +8658,10 @@
         <v>1</v>
       </c>
       <c r="G183" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
       <c r="A184" t="s">
         <v>181</v>
       </c>
@@ -8676,10 +8681,10 @@
         <v>1</v>
       </c>
       <c r="G184" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
       <c r="A185" t="s">
         <v>173</v>
       </c>
@@ -8699,10 +8704,10 @@
         <v>1</v>
       </c>
       <c r="G185" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
       <c r="A186" t="s">
         <v>589</v>
       </c>
@@ -8725,9 +8730,9 @@
         <v>590</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7">
       <c r="A187" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B187" t="s">
         <v>53</v>
@@ -8745,9 +8750,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7">
       <c r="A188" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B188" t="s">
         <v>53</v>
@@ -8756,7 +8761,7 @@
         <v>18</v>
       </c>
       <c r="D188" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E188">
         <v>64</v>
@@ -8765,9 +8770,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7">
       <c r="A189" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B189" t="s">
         <v>53</v>
@@ -8776,7 +8781,7 @@
         <v>15</v>
       </c>
       <c r="D189" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="E189">
         <v>66</v>
@@ -8785,7 +8790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7">
       <c r="A190" t="s">
         <v>529</v>
       </c>
@@ -8808,7 +8813,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7">
       <c r="A191" t="s">
         <v>376</v>
       </c>
@@ -8831,9 +8836,9 @@
         <v>594</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7">
       <c r="A192" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B192" t="s">
         <v>53</v>
@@ -8851,10 +8856,10 @@
         <v>-1</v>
       </c>
       <c r="G192" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
       <c r="A193" t="s">
         <v>401</v>
       </c>
@@ -8874,12 +8879,12 @@
         <v>-1</v>
       </c>
       <c r="G193" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
       <c r="A194" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B194" t="s">
         <v>53</v>
@@ -8897,12 +8902,12 @@
         <v>-1</v>
       </c>
       <c r="G194" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
       <c r="A195" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B195" t="s">
         <v>53</v>
@@ -8920,10 +8925,10 @@
         <v>-1</v>
       </c>
       <c r="G195" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
       <c r="A196" t="s">
         <v>206</v>
       </c>
@@ -8943,12 +8948,12 @@
         <v>-2</v>
       </c>
       <c r="G196" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
       <c r="A197" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B197" t="s">
         <v>191</v>
@@ -8966,7 +8971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7">
       <c r="A198" t="s">
         <v>328</v>
       </c>
@@ -8986,12 +8991,12 @@
         <v>2</v>
       </c>
       <c r="G198" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
       <c r="A199" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B199" t="s">
         <v>32</v>
@@ -9009,12 +9014,12 @@
         <v>2</v>
       </c>
       <c r="G199" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
       <c r="A200" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B200" t="s">
         <v>32</v>
@@ -9032,12 +9037,12 @@
         <v>2</v>
       </c>
       <c r="G200" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
       <c r="A201" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B201" t="s">
         <v>32</v>
@@ -9055,12 +9060,12 @@
         <v>1</v>
       </c>
       <c r="G201" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
       <c r="A202" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B202" t="s">
         <v>32</v>
@@ -9078,10 +9083,10 @@
         <v>1</v>
       </c>
       <c r="G202" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
       <c r="A203" t="s">
         <v>197</v>
       </c>
@@ -9101,10 +9106,10 @@
         <v>1</v>
       </c>
       <c r="G203" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
       <c r="A204" t="s">
         <v>254</v>
       </c>
@@ -9127,9 +9132,9 @@
         <v>585</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7">
       <c r="A205" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B205" t="s">
         <v>32</v>
@@ -9138,7 +9143,7 @@
         <v>65</v>
       </c>
       <c r="D205" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="E205">
         <v>81</v>
@@ -9147,7 +9152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7">
       <c r="A206" t="s">
         <v>302</v>
       </c>
@@ -9158,7 +9163,7 @@
         <v>65</v>
       </c>
       <c r="D206" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E206">
         <v>68</v>
@@ -9167,7 +9172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7">
       <c r="A207" t="s">
         <v>363</v>
       </c>
@@ -9178,7 +9183,7 @@
         <v>65</v>
       </c>
       <c r="D207" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="E207">
         <v>66</v>
@@ -9187,7 +9192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7">
       <c r="A208" t="s">
         <v>285</v>
       </c>
@@ -9210,7 +9215,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7">
       <c r="A209" t="s">
         <v>294</v>
       </c>
@@ -9233,7 +9238,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7">
       <c r="A210" t="s">
         <v>559</v>
       </c>
@@ -9256,7 +9261,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7">
       <c r="A211" t="s">
         <v>426</v>
       </c>
@@ -9276,7 +9281,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7">
       <c r="A212" t="s">
         <v>150</v>
       </c>
@@ -9296,10 +9301,10 @@
         <v>-1</v>
       </c>
       <c r="G212" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
       <c r="A213" t="s">
         <v>162</v>
       </c>
@@ -9319,10 +9324,10 @@
         <v>-1</v>
       </c>
       <c r="G213" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
       <c r="A214" t="s">
         <v>322</v>
       </c>
@@ -9342,10 +9347,10 @@
         <v>-1</v>
       </c>
       <c r="G214" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
       <c r="A215" t="s">
         <v>342</v>
       </c>
@@ -9365,10 +9370,10 @@
         <v>-1</v>
       </c>
       <c r="G215" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
       <c r="A216" t="s">
         <v>256</v>
       </c>
@@ -9388,12 +9393,12 @@
         <v>-1</v>
       </c>
       <c r="G216" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
       <c r="A217" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B217" t="s">
         <v>32</v>
@@ -9411,12 +9416,12 @@
         <v>-1</v>
       </c>
       <c r="G217" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
       <c r="A218" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B218" t="s">
         <v>32</v>
@@ -9434,10 +9439,10 @@
         <v>-1</v>
       </c>
       <c r="G218" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
       <c r="A219" t="s">
         <v>534</v>
       </c>
@@ -9460,7 +9465,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7">
       <c r="A220" t="s">
         <v>315</v>
       </c>
@@ -9480,10 +9485,10 @@
         <v>-2</v>
       </c>
       <c r="G220" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
       <c r="A221" t="s">
         <v>337</v>
       </c>
@@ -9503,12 +9508,12 @@
         <v>-2</v>
       </c>
       <c r="G221" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
       <c r="A222" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B222" t="s">
         <v>42</v>
@@ -9517,7 +9522,7 @@
         <v>351</v>
       </c>
       <c r="D222" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E222">
         <v>67</v>
@@ -9526,9 +9531,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7">
       <c r="A223" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B223" t="s">
         <v>42</v>
@@ -9537,7 +9542,7 @@
         <v>23</v>
       </c>
       <c r="D223" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E223">
         <v>67</v>
@@ -9546,12 +9551,12 @@
         <v>3</v>
       </c>
       <c r="G223" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
       <c r="A224" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B224" t="s">
         <v>42</v>
@@ -9569,12 +9574,12 @@
         <v>2</v>
       </c>
       <c r="G224" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
       <c r="A225" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B225" t="s">
         <v>42</v>
@@ -9592,12 +9597,12 @@
         <v>2</v>
       </c>
       <c r="G225" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
       <c r="A226" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B226" t="s">
         <v>42</v>
@@ -9615,12 +9620,12 @@
         <v>1</v>
       </c>
       <c r="G226" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" t="s">
         <v>1088</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>1089</v>
       </c>
       <c r="B227" t="s">
         <v>42</v>
@@ -9638,10 +9643,10 @@
         <v>1</v>
       </c>
       <c r="G227" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
       <c r="A228" t="s">
         <v>318</v>
       </c>
@@ -9661,12 +9666,12 @@
         <v>1</v>
       </c>
       <c r="G228" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
       <c r="A229" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B229" t="s">
         <v>42</v>
@@ -9684,12 +9689,12 @@
         <v>1</v>
       </c>
       <c r="G229" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
       <c r="A230" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B230" t="s">
         <v>42</v>
@@ -9707,12 +9712,12 @@
         <v>0</v>
       </c>
       <c r="G230" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
       <c r="A231" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B231" t="s">
         <v>42</v>
@@ -9730,12 +9735,12 @@
         <v>0</v>
       </c>
       <c r="G231" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
       <c r="A232" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B232" t="s">
         <v>42</v>
@@ -9744,7 +9749,7 @@
         <v>18</v>
       </c>
       <c r="D232" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="E232">
         <v>82</v>
@@ -9753,7 +9758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7">
       <c r="A233" t="s">
         <v>339</v>
       </c>
@@ -9773,7 +9778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7">
       <c r="A234" t="s">
         <v>344</v>
       </c>
@@ -9784,7 +9789,7 @@
         <v>18</v>
       </c>
       <c r="D234" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="E234">
         <v>77</v>
@@ -9793,9 +9798,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7">
       <c r="A235" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B235" t="s">
         <v>42</v>
@@ -9813,10 +9818,10 @@
         <v>-1</v>
       </c>
       <c r="G235" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
       <c r="A236" t="s">
         <v>273</v>
       </c>
@@ -9836,12 +9841,12 @@
         <v>-1</v>
       </c>
       <c r="G236" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
       <c r="A237" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B237" t="s">
         <v>42</v>
@@ -9859,10 +9864,10 @@
         <v>-1</v>
       </c>
       <c r="G237" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
       <c r="A238" t="s">
         <v>292</v>
       </c>
@@ -9882,12 +9887,12 @@
         <v>-1</v>
       </c>
       <c r="G238" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
       <c r="A239" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B239" t="s">
         <v>42</v>
@@ -9905,12 +9910,12 @@
         <v>-1</v>
       </c>
       <c r="G239" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
       <c r="A240" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B240" t="s">
         <v>42</v>
@@ -9928,12 +9933,12 @@
         <v>-1</v>
       </c>
       <c r="G240" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
       <c r="A241" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B241" t="s">
         <v>42</v>
@@ -9951,10 +9956,10 @@
         <v>-1</v>
       </c>
       <c r="G241" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
       <c r="A242" t="s">
         <v>170</v>
       </c>
@@ -9974,12 +9979,12 @@
         <v>-1</v>
       </c>
       <c r="G242" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
       <c r="A243" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B243" t="s">
         <v>42</v>
@@ -9997,10 +10002,10 @@
         <v>-1</v>
       </c>
       <c r="G243" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
       <c r="A244" t="s">
         <v>205</v>
       </c>
@@ -10020,21 +10025,21 @@
         <v>-1</v>
       </c>
       <c r="G244" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
       <c r="A245" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B245" t="s">
         <v>42</v>
       </c>
       <c r="C245" t="s">
+        <v>755</v>
+      </c>
+      <c r="D245" t="s">
         <v>756</v>
-      </c>
-      <c r="D245" t="s">
-        <v>757</v>
       </c>
       <c r="E245">
         <v>63</v>
@@ -10043,18 +10048,18 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7">
       <c r="A246" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B246" t="s">
         <v>1292</v>
-      </c>
-      <c r="B246" t="s">
-        <v>1293</v>
       </c>
       <c r="C246" t="s">
         <v>65</v>
       </c>
       <c r="D246" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="E246">
         <v>72</v>
@@ -10063,12 +10068,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7">
       <c r="A247" t="s">
+        <v>941</v>
+      </c>
+      <c r="B247" t="s">
         <v>942</v>
-      </c>
-      <c r="B247" t="s">
-        <v>943</v>
       </c>
       <c r="C247" t="s">
         <v>9</v>
@@ -10083,15 +10088,15 @@
         <v>0</v>
       </c>
       <c r="G247" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
       <c r="A248" t="s">
         <v>362</v>
       </c>
       <c r="B248" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C248" t="s">
         <v>11</v>
@@ -10106,9 +10111,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7">
       <c r="A249" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B249" t="s">
         <v>421</v>
@@ -10117,7 +10122,7 @@
         <v>13</v>
       </c>
       <c r="D249" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="E249">
         <v>69</v>
@@ -10126,9 +10131,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7">
       <c r="A250" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B250" t="s">
         <v>260</v>
@@ -10137,7 +10142,7 @@
         <v>85</v>
       </c>
       <c r="D250" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E250">
         <v>76</v>
@@ -10146,15 +10151,15 @@
         <v>-1</v>
       </c>
       <c r="G250" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
       <c r="A251" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B251" t="s">
         <v>1259</v>
-      </c>
-      <c r="B251" t="s">
-        <v>1260</v>
       </c>
       <c r="C251" t="s">
         <v>11</v>
@@ -10169,15 +10174,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7">
       <c r="A252" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B252" t="s">
         <v>425</v>
       </c>
       <c r="C252" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D252" t="s">
         <v>10</v>
@@ -10189,12 +10194,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7">
       <c r="A253" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B253" t="s">
         <v>1300</v>
-      </c>
-      <c r="B253" t="s">
-        <v>1301</v>
       </c>
       <c r="C253" t="s">
         <v>11</v>
@@ -10209,7 +10214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7">
       <c r="A254" t="s">
         <v>343</v>
       </c>
@@ -10220,7 +10225,7 @@
         <v>28</v>
       </c>
       <c r="D254" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E254">
         <v>71</v>
@@ -10229,9 +10234,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7">
       <c r="A255" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B255" t="s">
         <v>269</v>
@@ -10240,7 +10245,7 @@
         <v>11</v>
       </c>
       <c r="D255" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="E255">
         <v>66</v>
@@ -10249,9 +10254,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7">
       <c r="A256" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B256" t="s">
         <v>354</v>
@@ -10260,7 +10265,7 @@
         <v>11</v>
       </c>
       <c r="D256" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E256">
         <v>70</v>
@@ -10269,12 +10274,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7">
       <c r="A257" t="s">
         <v>429</v>
       </c>
       <c r="B257" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C257" t="s">
         <v>9</v>
@@ -10289,9 +10294,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7">
       <c r="A258" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B258" t="s">
         <v>433</v>
@@ -10309,12 +10314,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7">
       <c r="A259" t="s">
         <v>436</v>
       </c>
       <c r="B259" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="C259" t="s">
         <v>11</v>
@@ -10329,18 +10334,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7">
       <c r="A260" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B260" t="s">
         <v>1355</v>
-      </c>
-      <c r="B260" t="s">
-        <v>1356</v>
       </c>
       <c r="C260" t="s">
         <v>34</v>
       </c>
       <c r="D260" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="E260">
         <v>60</v>
@@ -10349,18 +10354,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7">
       <c r="A261" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B261" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="C261" t="s">
         <v>29</v>
       </c>
       <c r="D261" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E261">
         <v>68</v>
@@ -10369,12 +10374,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7">
       <c r="A262" t="s">
         <v>441</v>
       </c>
       <c r="B262" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C262" t="s">
         <v>18</v>
@@ -10389,18 +10394,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7">
       <c r="A263" t="s">
         <v>209</v>
       </c>
       <c r="B263" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C263" t="s">
         <v>9</v>
       </c>
       <c r="D263" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="E263">
         <v>73</v>
@@ -10409,7 +10414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7">
       <c r="A264" t="s">
         <v>350</v>
       </c>
@@ -10432,7 +10437,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7">
       <c r="A265" t="s">
         <v>198</v>
       </c>
@@ -10452,10 +10457,10 @@
         <v>4</v>
       </c>
       <c r="G265" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
       <c r="A266" t="s">
         <v>82</v>
       </c>
@@ -10475,10 +10480,10 @@
         <v>4</v>
       </c>
       <c r="G266" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
       <c r="A267" t="s">
         <v>572</v>
       </c>
@@ -10501,7 +10506,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7">
       <c r="A268" t="s">
         <v>305</v>
       </c>
@@ -10521,10 +10526,10 @@
         <v>2</v>
       </c>
       <c r="G268" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
       <c r="A269" t="s">
         <v>232</v>
       </c>
@@ -10544,12 +10549,12 @@
         <v>2</v>
       </c>
       <c r="G269" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
       <c r="A270" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B270" t="s">
         <v>70</v>
@@ -10567,10 +10572,10 @@
         <v>2</v>
       </c>
       <c r="G270" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
       <c r="A271" t="s">
         <v>203</v>
       </c>
@@ -10590,10 +10595,10 @@
         <v>2</v>
       </c>
       <c r="G271" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
       <c r="A272" t="s">
         <v>187</v>
       </c>
@@ -10613,10 +10618,10 @@
         <v>1</v>
       </c>
       <c r="G272" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
       <c r="A273" t="s">
         <v>186</v>
       </c>
@@ -10636,10 +10641,10 @@
         <v>1</v>
       </c>
       <c r="G273" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
       <c r="A274" t="s">
         <v>123</v>
       </c>
@@ -10659,12 +10664,12 @@
         <v>1</v>
       </c>
       <c r="G274" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
       <c r="A275" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B275" t="s">
         <v>70</v>
@@ -10682,12 +10687,12 @@
         <v>1</v>
       </c>
       <c r="G275" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
       <c r="A276" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B276" t="s">
         <v>70</v>
@@ -10705,12 +10710,12 @@
         <v>1</v>
       </c>
       <c r="G276" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
       <c r="A277" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B277" t="s">
         <v>70</v>
@@ -10728,10 +10733,10 @@
         <v>1</v>
       </c>
       <c r="G277" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
       <c r="A278" t="s">
         <v>201</v>
       </c>
@@ -10751,10 +10756,10 @@
         <v>1</v>
       </c>
       <c r="G278" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
       <c r="A279" t="s">
         <v>471</v>
       </c>
@@ -10777,9 +10782,9 @@
         <v>472</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7">
       <c r="A280" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B280" t="s">
         <v>70</v>
@@ -10788,7 +10793,7 @@
         <v>19</v>
       </c>
       <c r="D280" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="E280">
         <v>80</v>
@@ -10797,7 +10802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7">
       <c r="A281" t="s">
         <v>557</v>
       </c>
@@ -10820,7 +10825,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7">
       <c r="A282" t="s">
         <v>308</v>
       </c>
@@ -10840,10 +10845,10 @@
         <v>-1</v>
       </c>
       <c r="G282" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
       <c r="A283" t="s">
         <v>276</v>
       </c>
@@ -10866,12 +10871,12 @@
         <v>493</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7">
       <c r="A284" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B284" t="s">
         <v>1280</v>
-      </c>
-      <c r="B284" t="s">
-        <v>1281</v>
       </c>
       <c r="C284" t="s">
         <v>11</v>
@@ -10886,7 +10891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7">
       <c r="A285" t="s">
         <v>409</v>
       </c>
@@ -10906,10 +10911,10 @@
         <v>4</v>
       </c>
       <c r="G285" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
       <c r="A286" t="s">
         <v>432</v>
       </c>
@@ -10917,10 +10922,10 @@
         <v>30</v>
       </c>
       <c r="C286" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D286" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E286">
         <v>68</v>
@@ -10929,7 +10934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7">
       <c r="A287" t="s">
         <v>193</v>
       </c>
@@ -10949,10 +10954,10 @@
         <v>2</v>
       </c>
       <c r="G287" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
       <c r="A288" t="s">
         <v>345</v>
       </c>
@@ -10972,10 +10977,10 @@
         <v>2</v>
       </c>
       <c r="G288" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
       <c r="A289" t="s">
         <v>157</v>
       </c>
@@ -10995,21 +11000,21 @@
         <v>2</v>
       </c>
       <c r="G289" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
       <c r="A290" t="s">
-        <v>609</v>
+        <v>1388</v>
       </c>
       <c r="B290" t="s">
         <v>30</v>
       </c>
       <c r="C290" t="s">
+        <v>609</v>
+      </c>
+      <c r="D290" t="s">
         <v>610</v>
-      </c>
-      <c r="D290" t="s">
-        <v>611</v>
       </c>
       <c r="E290">
         <v>68</v>
@@ -11018,12 +11023,12 @@
         <v>1</v>
       </c>
       <c r="G290" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
       <c r="A291" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B291" t="s">
         <v>30</v>
@@ -11041,10 +11046,10 @@
         <v>1</v>
       </c>
       <c r="G291" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
       <c r="A292" t="s">
         <v>307</v>
       </c>
@@ -11064,12 +11069,12 @@
         <v>1</v>
       </c>
       <c r="G292" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
       <c r="A293" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B293" t="s">
         <v>30</v>
@@ -11087,12 +11092,12 @@
         <v>1</v>
       </c>
       <c r="G293" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
       <c r="A294" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B294" t="s">
         <v>30</v>
@@ -11110,12 +11115,12 @@
         <v>1</v>
       </c>
       <c r="G294" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
       <c r="A295" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B295" t="s">
         <v>30</v>
@@ -11133,12 +11138,12 @@
         <v>1</v>
       </c>
       <c r="G295" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
       <c r="A296" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B296" t="s">
         <v>30</v>
@@ -11147,7 +11152,7 @@
         <v>28</v>
       </c>
       <c r="D296" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="E296">
         <v>73</v>
@@ -11156,10 +11161,10 @@
         <v>1</v>
       </c>
       <c r="G296" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
       <c r="A297" t="s">
         <v>178</v>
       </c>
@@ -11179,12 +11184,12 @@
         <v>1</v>
       </c>
       <c r="G297" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
       <c r="A298" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B298" t="s">
         <v>30</v>
@@ -11202,12 +11207,12 @@
         <v>1</v>
       </c>
       <c r="G298" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
       <c r="A299" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B299" t="s">
         <v>30</v>
@@ -11225,12 +11230,12 @@
         <v>0</v>
       </c>
       <c r="G299" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
       <c r="A300" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B300" t="s">
         <v>30</v>
@@ -11248,7 +11253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7">
       <c r="A301" t="s">
         <v>243</v>
       </c>
@@ -11259,7 +11264,7 @@
         <v>11</v>
       </c>
       <c r="D301" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="E301">
         <v>67</v>
@@ -11268,9 +11273,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7">
       <c r="A302" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B302" t="s">
         <v>30</v>
@@ -11279,7 +11284,7 @@
         <v>11</v>
       </c>
       <c r="D302" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E302">
         <v>72</v>
@@ -11288,9 +11293,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7">
       <c r="A303" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B303" t="s">
         <v>30</v>
@@ -11308,9 +11313,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7">
       <c r="A304" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B304" t="s">
         <v>30</v>
@@ -11319,7 +11324,7 @@
         <v>11</v>
       </c>
       <c r="D304" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E304">
         <v>72</v>
@@ -11328,9 +11333,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7">
       <c r="A305" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B305" t="s">
         <v>30</v>
@@ -11348,7 +11353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7">
       <c r="A306" t="s">
         <v>390</v>
       </c>
@@ -11359,7 +11364,7 @@
         <v>28</v>
       </c>
       <c r="D306" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="E306">
         <v>72</v>
@@ -11368,9 +11373,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7">
       <c r="A307" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B307" t="s">
         <v>30</v>
@@ -11388,12 +11393,12 @@
         <v>-1</v>
       </c>
       <c r="G307" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
       <c r="A308" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B308" t="s">
         <v>30</v>
@@ -11411,12 +11416,12 @@
         <v>-1</v>
       </c>
       <c r="G308" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
       <c r="A309" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B309" t="s">
         <v>30</v>
@@ -11434,10 +11439,10 @@
         <v>-1</v>
       </c>
       <c r="G309" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
       <c r="A310" t="s">
         <v>331</v>
       </c>
@@ -11457,10 +11462,10 @@
         <v>-1</v>
       </c>
       <c r="G310" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
       <c r="A311" t="s">
         <v>266</v>
       </c>
@@ -11480,12 +11485,12 @@
         <v>-2</v>
       </c>
       <c r="G311" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
       <c r="A312" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B312" t="s">
         <v>410</v>
@@ -11503,7 +11508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7">
       <c r="A313" t="s">
         <v>413</v>
       </c>
@@ -11523,12 +11528,12 @@
         <v>3</v>
       </c>
       <c r="G313" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
       <c r="A314" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B314" t="s">
         <v>73</v>
@@ -11546,10 +11551,10 @@
         <v>2</v>
       </c>
       <c r="G314" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
       <c r="A315" t="s">
         <v>364</v>
       </c>
@@ -11572,7 +11577,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7">
       <c r="A316" t="s">
         <v>375</v>
       </c>
@@ -11595,7 +11600,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7">
       <c r="A317" t="s">
         <v>124</v>
       </c>
@@ -11615,12 +11620,12 @@
         <v>1</v>
       </c>
       <c r="G317" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
       <c r="A318" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B318" t="s">
         <v>73</v>
@@ -11638,10 +11643,10 @@
         <v>1</v>
       </c>
       <c r="G318" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
       <c r="A319" t="s">
         <v>268</v>
       </c>
@@ -11661,10 +11666,10 @@
         <v>1</v>
       </c>
       <c r="G319" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
       <c r="A320" t="s">
         <v>115</v>
       </c>
@@ -11684,10 +11689,10 @@
         <v>1</v>
       </c>
       <c r="G320" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
       <c r="A321" t="s">
         <v>165</v>
       </c>
@@ -11707,12 +11712,12 @@
         <v>1</v>
       </c>
       <c r="G321" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
       <c r="A322" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B322" t="s">
         <v>73</v>
@@ -11730,10 +11735,10 @@
         <v>1</v>
       </c>
       <c r="G322" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
       <c r="A323" t="s">
         <v>389</v>
       </c>
@@ -11744,7 +11749,7 @@
         <v>11</v>
       </c>
       <c r="D323" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="E323">
         <v>79</v>
@@ -11753,7 +11758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7">
       <c r="A324" t="s">
         <v>370</v>
       </c>
@@ -11776,7 +11781,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7">
       <c r="A325" t="s">
         <v>539</v>
       </c>
@@ -11799,7 +11804,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7">
       <c r="A326" t="s">
         <v>545</v>
       </c>
@@ -11822,7 +11827,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7">
       <c r="A327" t="s">
         <v>385</v>
       </c>
@@ -11842,12 +11847,12 @@
         <v>-1</v>
       </c>
       <c r="G327" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
       <c r="A328" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B328" t="s">
         <v>73</v>
@@ -11865,12 +11870,12 @@
         <v>-1</v>
       </c>
       <c r="G328" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
       <c r="A329" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B329" t="s">
         <v>73</v>
@@ -11888,10 +11893,10 @@
         <v>-1</v>
       </c>
       <c r="G329" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
       <c r="A330" t="s">
         <v>171</v>
       </c>
@@ -11911,10 +11916,10 @@
         <v>-1</v>
       </c>
       <c r="G330" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
       <c r="A331" t="s">
         <v>176</v>
       </c>
@@ -11934,10 +11939,10 @@
         <v>-1</v>
       </c>
       <c r="G331" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
       <c r="A332" t="s">
         <v>398</v>
       </c>
@@ -11957,10 +11962,10 @@
         <v>-2</v>
       </c>
       <c r="G332" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
       <c r="A333" t="s">
         <v>592</v>
       </c>
@@ -11983,9 +11988,9 @@
         <v>593</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7">
       <c r="A334" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B334" t="s">
         <v>428</v>
@@ -12003,9 +12008,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7">
       <c r="A335" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B335" t="s">
         <v>428</v>
@@ -12023,9 +12028,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7">
       <c r="A336" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B336" t="s">
         <v>428</v>
@@ -12043,12 +12048,12 @@
         <v>-2</v>
       </c>
       <c r="G336" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
       <c r="A337" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B337" t="s">
         <v>88</v>
@@ -12066,10 +12071,10 @@
         <v>3</v>
       </c>
       <c r="G337" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
       <c r="A338" t="s">
         <v>475</v>
       </c>
@@ -12092,7 +12097,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7">
       <c r="A339" t="s">
         <v>184</v>
       </c>
@@ -12115,7 +12120,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7">
       <c r="A340" t="s">
         <v>601</v>
       </c>
@@ -12138,7 +12143,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7">
       <c r="A341" t="s">
         <v>603</v>
       </c>
@@ -12161,9 +12166,9 @@
         <v>604</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7">
       <c r="A342" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B342" t="s">
         <v>88</v>
@@ -12181,10 +12186,10 @@
         <v>1</v>
       </c>
       <c r="G342" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
       <c r="A343" t="s">
         <v>380</v>
       </c>
@@ -12192,10 +12197,10 @@
         <v>88</v>
       </c>
       <c r="C343" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D343" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E343">
         <v>74</v>
@@ -12204,7 +12209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7">
       <c r="A344" t="s">
         <v>132</v>
       </c>
@@ -12224,10 +12229,10 @@
         <v>1</v>
       </c>
       <c r="G344" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
       <c r="A345" t="s">
         <v>360</v>
       </c>
@@ -12247,10 +12252,10 @@
         <v>1</v>
       </c>
       <c r="G345" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
       <c r="A346" t="s">
         <v>349</v>
       </c>
@@ -12270,12 +12275,12 @@
         <v>1</v>
       </c>
       <c r="G346" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
       <c r="A347" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B347" t="s">
         <v>88</v>
@@ -12293,12 +12298,12 @@
         <v>0</v>
       </c>
       <c r="G347" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
       <c r="A348" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B348" t="s">
         <v>88</v>
@@ -12316,10 +12321,10 @@
         <v>0</v>
       </c>
       <c r="G348" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
       <c r="A349" t="s">
         <v>229</v>
       </c>
@@ -12339,10 +12344,10 @@
         <v>0</v>
       </c>
       <c r="G349" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
       <c r="A350" t="s">
         <v>396</v>
       </c>
@@ -12353,7 +12358,7 @@
         <v>23</v>
       </c>
       <c r="D350" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="E350">
         <v>65</v>
@@ -12362,9 +12367,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7">
       <c r="A351" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B351" t="s">
         <v>88</v>
@@ -12382,9 +12387,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7">
       <c r="A352" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B352" t="s">
         <v>88</v>
@@ -12393,7 +12398,7 @@
         <v>29</v>
       </c>
       <c r="D352" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="E352">
         <v>77</v>
@@ -12402,9 +12407,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7">
       <c r="A353" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B353" t="s">
         <v>88</v>
@@ -12422,7 +12427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7">
       <c r="A354" t="s">
         <v>279</v>
       </c>
@@ -12445,7 +12450,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7">
       <c r="A355" t="s">
         <v>298</v>
       </c>
@@ -12468,9 +12473,9 @@
         <v>580</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7">
       <c r="A356" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B356" t="s">
         <v>88</v>
@@ -12488,21 +12493,21 @@
         <v>-1</v>
       </c>
       <c r="G356" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7">
       <c r="A357" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B357" t="s">
         <v>88</v>
       </c>
       <c r="C357" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D357" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E357">
         <v>69</v>
@@ -12511,12 +12516,12 @@
         <v>-1</v>
       </c>
       <c r="G357" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7">
       <c r="A358" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B358" t="s">
         <v>88</v>
@@ -12525,7 +12530,7 @@
         <v>34</v>
       </c>
       <c r="D358" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E358">
         <v>76</v>
@@ -12534,12 +12539,12 @@
         <v>-1</v>
       </c>
       <c r="G358" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7">
       <c r="A359" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B359" t="s">
         <v>88</v>
@@ -12557,12 +12562,12 @@
         <v>-1</v>
       </c>
       <c r="G359" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7">
+      <c r="A360" t="s">
         <v>815</v>
-      </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
-        <v>816</v>
       </c>
       <c r="B360" t="s">
         <v>88</v>
@@ -12580,12 +12585,12 @@
         <v>-1</v>
       </c>
       <c r="G360" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7">
       <c r="A361" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B361" t="s">
         <v>408</v>
@@ -12594,7 +12599,7 @@
         <v>9</v>
       </c>
       <c r="D361" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="E361">
         <v>67</v>
@@ -12603,7 +12608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7">
       <c r="A362" t="s">
         <v>453</v>
       </c>
@@ -12626,7 +12631,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7">
       <c r="A363" t="s">
         <v>277</v>
       </c>
@@ -12649,7 +12654,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7">
       <c r="A364" t="s">
         <v>288</v>
       </c>
@@ -12672,7 +12677,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7">
       <c r="A365" t="s">
         <v>417</v>
       </c>
@@ -12695,7 +12700,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7">
       <c r="A366" t="s">
         <v>293</v>
       </c>
@@ -12718,9 +12723,9 @@
         <v>568</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7">
       <c r="A367" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B367" t="s">
         <v>59</v>
@@ -12738,12 +12743,12 @@
         <v>1</v>
       </c>
       <c r="G367" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7">
       <c r="A368" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B368" t="s">
         <v>59</v>
@@ -12752,7 +12757,7 @@
         <v>23</v>
       </c>
       <c r="D368" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E368">
         <v>70</v>
@@ -12761,10 +12766,10 @@
         <v>1</v>
       </c>
       <c r="G368" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7">
       <c r="A369" t="s">
         <v>358</v>
       </c>
@@ -12784,10 +12789,10 @@
         <v>1</v>
       </c>
       <c r="G369" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7">
       <c r="A370" t="s">
         <v>175</v>
       </c>
@@ -12807,12 +12812,12 @@
         <v>1</v>
       </c>
       <c r="G370" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7">
       <c r="A371" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B371" t="s">
         <v>59</v>
@@ -12830,10 +12835,10 @@
         <v>1</v>
       </c>
       <c r="G371" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7">
       <c r="A372" t="s">
         <v>223</v>
       </c>
@@ -12853,12 +12858,12 @@
         <v>0</v>
       </c>
       <c r="G372" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7">
       <c r="A373" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B373" t="s">
         <v>59</v>
@@ -12876,10 +12881,10 @@
         <v>0</v>
       </c>
       <c r="G373" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7">
       <c r="A374" t="s">
         <v>282</v>
       </c>
@@ -12899,7 +12904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7">
       <c r="A375" t="s">
         <v>320</v>
       </c>
@@ -12919,9 +12924,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7">
       <c r="A376" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B376" t="s">
         <v>59</v>
@@ -12930,7 +12935,7 @@
         <v>28</v>
       </c>
       <c r="D376" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E376">
         <v>79</v>
@@ -12939,9 +12944,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7">
       <c r="A377" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B377" t="s">
         <v>59</v>
@@ -12959,7 +12964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7">
       <c r="A378" t="s">
         <v>566</v>
       </c>
@@ -12982,9 +12987,9 @@
         <v>567</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7">
       <c r="A379" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B379" t="s">
         <v>59</v>
@@ -13002,10 +13007,10 @@
         <v>-1</v>
       </c>
       <c r="G379" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7">
       <c r="A380" t="s">
         <v>329</v>
       </c>
@@ -13025,12 +13030,12 @@
         <v>-1</v>
       </c>
       <c r="G380" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7">
       <c r="A381" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B381" t="s">
         <v>59</v>
@@ -13048,12 +13053,12 @@
         <v>-1</v>
       </c>
       <c r="G381" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7">
       <c r="A382" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B382" t="s">
         <v>59</v>
@@ -13071,12 +13076,12 @@
         <v>-1</v>
       </c>
       <c r="G382" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7">
       <c r="A383" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B383" t="s">
         <v>59</v>
@@ -13094,10 +13099,10 @@
         <v>-2</v>
       </c>
       <c r="G383" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7">
       <c r="A384" t="s">
         <v>244</v>
       </c>
@@ -13117,10 +13122,10 @@
         <v>2</v>
       </c>
       <c r="G384" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7">
       <c r="A385" t="s">
         <v>536</v>
       </c>
@@ -13143,7 +13148,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7">
       <c r="A386" t="s">
         <v>403</v>
       </c>
@@ -13163,21 +13168,21 @@
         <v>1</v>
       </c>
       <c r="G386" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7">
       <c r="A387" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B387" t="s">
         <v>79</v>
       </c>
       <c r="C387" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D387" t="s">
         <v>1238</v>
-      </c>
-      <c r="D387" t="s">
-        <v>1239</v>
       </c>
       <c r="E387">
         <v>76</v>
@@ -13186,7 +13191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7">
       <c r="A388" t="s">
         <v>406</v>
       </c>
@@ -13197,7 +13202,7 @@
         <v>9</v>
       </c>
       <c r="D388" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E388">
         <v>64</v>
@@ -13206,12 +13211,12 @@
         <v>0</v>
       </c>
       <c r="G388" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7">
       <c r="A389" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B389" t="s">
         <v>79</v>
@@ -13220,7 +13225,7 @@
         <v>15</v>
       </c>
       <c r="D389" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E389">
         <v>76</v>
@@ -13229,9 +13234,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7">
       <c r="A390" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B390" t="s">
         <v>79</v>
@@ -13240,7 +13245,7 @@
         <v>9</v>
       </c>
       <c r="D390" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="E390">
         <v>82</v>
@@ -13249,9 +13254,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7">
       <c r="A391" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B391" t="s">
         <v>79</v>
@@ -13269,9 +13274,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7">
       <c r="A392" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B392" t="s">
         <v>79</v>
@@ -13280,7 +13285,7 @@
         <v>92</v>
       </c>
       <c r="D392" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="E392">
         <v>70</v>
@@ -13289,9 +13294,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7">
       <c r="A393" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B393" t="s">
         <v>79</v>
@@ -13300,7 +13305,7 @@
         <v>36</v>
       </c>
       <c r="D393" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="E393">
         <v>65</v>
@@ -13309,9 +13314,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7">
       <c r="A394" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B394" t="s">
         <v>79</v>
@@ -13320,7 +13325,7 @@
         <v>13</v>
       </c>
       <c r="D394" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="E394">
         <v>73</v>
@@ -13329,9 +13334,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7">
       <c r="A395" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B395" t="s">
         <v>79</v>
@@ -13340,7 +13345,7 @@
         <v>92</v>
       </c>
       <c r="D395" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="E395">
         <v>57</v>
@@ -13349,7 +13354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7">
       <c r="A396" t="s">
         <v>461</v>
       </c>
@@ -13372,7 +13377,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7">
       <c r="A397" t="s">
         <v>482</v>
       </c>
@@ -13395,7 +13400,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7">
       <c r="A398" t="s">
         <v>499</v>
       </c>
@@ -13418,7 +13423,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7">
       <c r="A399" t="s">
         <v>381</v>
       </c>
@@ -13438,10 +13443,10 @@
         <v>-1</v>
       </c>
       <c r="G399" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7">
       <c r="A400" t="s">
         <v>228</v>
       </c>
@@ -13461,10 +13466,10 @@
         <v>-1</v>
       </c>
       <c r="G400" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7">
       <c r="A401" t="s">
         <v>154</v>
       </c>
@@ -13484,12 +13489,12 @@
         <v>-1</v>
       </c>
       <c r="G401" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7">
       <c r="A402" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B402" t="s">
         <v>79</v>
@@ -13507,12 +13512,12 @@
         <v>-1</v>
       </c>
       <c r="G402" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7">
       <c r="A403" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B403" t="s">
         <v>79</v>
@@ -13530,10 +13535,10 @@
         <v>-1</v>
       </c>
       <c r="G403" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7">
       <c r="A404" t="s">
         <v>250</v>
       </c>
@@ -13553,12 +13558,12 @@
         <v>-1</v>
       </c>
       <c r="G404" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7">
       <c r="A405" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B405" t="s">
         <v>79</v>
@@ -13567,7 +13572,7 @@
         <v>15</v>
       </c>
       <c r="D405" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E405">
         <v>73</v>
@@ -13576,12 +13581,12 @@
         <v>-1</v>
       </c>
       <c r="G405" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7">
       <c r="A406" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B406" t="s">
         <v>79</v>
@@ -13599,10 +13604,10 @@
         <v>-1</v>
       </c>
       <c r="G406" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7">
       <c r="A407" t="s">
         <v>242</v>
       </c>
@@ -13622,12 +13627,12 @@
         <v>-3</v>
       </c>
       <c r="G407" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7">
       <c r="A408" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B408" t="s">
         <v>430</v>
@@ -13645,7 +13650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7">
       <c r="A409" t="s">
         <v>155</v>
       </c>
@@ -13665,12 +13670,12 @@
         <v>2</v>
       </c>
       <c r="G409" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7">
       <c r="A410" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B410" t="s">
         <v>83</v>
@@ -13688,10 +13693,10 @@
         <v>2</v>
       </c>
       <c r="G410" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7">
       <c r="A411" t="s">
         <v>341</v>
       </c>
@@ -13711,12 +13716,12 @@
         <v>2</v>
       </c>
       <c r="G411" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7">
       <c r="A412" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B412" t="s">
         <v>83</v>
@@ -13734,12 +13739,12 @@
         <v>1</v>
       </c>
       <c r="G412" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7">
       <c r="A413" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B413" t="s">
         <v>83</v>
@@ -13757,12 +13762,12 @@
         <v>1</v>
       </c>
       <c r="G413" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7">
       <c r="A414" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B414" t="s">
         <v>83</v>
@@ -13771,7 +13776,7 @@
         <v>15</v>
       </c>
       <c r="D414" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="E414">
         <v>86</v>
@@ -13780,9 +13785,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7">
       <c r="A415" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B415" t="s">
         <v>83</v>
@@ -13791,7 +13796,7 @@
         <v>15</v>
       </c>
       <c r="D415" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="E415">
         <v>64</v>
@@ -13800,7 +13805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7">
       <c r="A416" t="s">
         <v>577</v>
       </c>
@@ -13823,7 +13828,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7">
       <c r="A417" t="s">
         <v>137</v>
       </c>
@@ -13843,10 +13848,10 @@
         <v>-1</v>
       </c>
       <c r="G417" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7">
       <c r="A418" t="s">
         <v>290</v>
       </c>
@@ -13866,12 +13871,12 @@
         <v>-1</v>
       </c>
       <c r="G418" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7">
       <c r="A419" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B419" t="s">
         <v>83</v>
@@ -13889,10 +13894,10 @@
         <v>-1</v>
       </c>
       <c r="G419" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7">
       <c r="A420" t="s">
         <v>164</v>
       </c>
@@ -13912,12 +13917,12 @@
         <v>-1</v>
       </c>
       <c r="G420" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7">
       <c r="A421" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B421" t="s">
         <v>83</v>
@@ -13935,12 +13940,12 @@
         <v>-1</v>
       </c>
       <c r="G421" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7">
       <c r="A422" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B422" t="s">
         <v>83</v>
@@ -13958,12 +13963,12 @@
         <v>-1</v>
       </c>
       <c r="G422" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7">
       <c r="A423" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B423" t="s">
         <v>83</v>
@@ -13981,10 +13986,10 @@
         <v>-1</v>
       </c>
       <c r="G423" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7">
       <c r="A424" t="s">
         <v>319</v>
       </c>
@@ -14004,12 +14009,12 @@
         <v>-1</v>
       </c>
       <c r="G424" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7">
       <c r="A425" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B425" t="s">
         <v>83</v>
@@ -14027,12 +14032,12 @@
         <v>-1</v>
       </c>
       <c r="G425" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7">
       <c r="A426" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B426" t="s">
         <v>83</v>
@@ -14050,12 +14055,12 @@
         <v>-1</v>
       </c>
       <c r="G426" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7">
       <c r="A427" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B427" t="s">
         <v>83</v>
@@ -14073,10 +14078,10 @@
         <v>-1</v>
       </c>
       <c r="G427" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7">
       <c r="A428" t="s">
         <v>340</v>
       </c>
@@ -14096,12 +14101,12 @@
         <v>-1</v>
       </c>
       <c r="G428" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7">
       <c r="A429" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B429" t="s">
         <v>83</v>
@@ -14119,10 +14124,10 @@
         <v>-1</v>
       </c>
       <c r="G429" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7">
       <c r="A430" t="s">
         <v>136</v>
       </c>
@@ -14142,12 +14147,12 @@
         <v>-2</v>
       </c>
       <c r="G430" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7">
       <c r="A431" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B431" t="s">
         <v>83</v>
@@ -14165,12 +14170,12 @@
         <v>-2</v>
       </c>
       <c r="G431" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7">
       <c r="A432" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B432" t="s">
         <v>83</v>
@@ -14179,7 +14184,7 @@
         <v>65</v>
       </c>
       <c r="D432" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E432">
         <v>70</v>
@@ -14188,12 +14193,12 @@
         <v>-2</v>
       </c>
       <c r="G432" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7">
       <c r="A433" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B433" t="s">
         <v>83</v>
@@ -14211,10 +14216,10 @@
         <v>-4</v>
       </c>
       <c r="G433" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7">
       <c r="A434" t="s">
         <v>356</v>
       </c>
@@ -14234,12 +14239,12 @@
         <v>3</v>
       </c>
       <c r="G434" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7">
       <c r="A435" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B435" t="s">
         <v>7</v>
@@ -14248,7 +14253,7 @@
         <v>19</v>
       </c>
       <c r="D435" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E435">
         <v>73</v>
@@ -14257,10 +14262,10 @@
         <v>2</v>
       </c>
       <c r="G435" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7">
       <c r="A436" t="s">
         <v>179</v>
       </c>
@@ -14280,10 +14285,10 @@
         <v>2</v>
       </c>
       <c r="G436" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7">
       <c r="A437" t="s">
         <v>222</v>
       </c>
@@ -14303,12 +14308,12 @@
         <v>1</v>
       </c>
       <c r="G437" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7">
       <c r="A438" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B438" t="s">
         <v>7</v>
@@ -14317,7 +14322,7 @@
         <v>416</v>
       </c>
       <c r="D438" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E438">
         <v>77</v>
@@ -14326,10 +14331,10 @@
         <v>1</v>
       </c>
       <c r="G438" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7">
       <c r="A439" t="s">
         <v>192</v>
       </c>
@@ -14349,10 +14354,10 @@
         <v>1</v>
       </c>
       <c r="G439" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7">
       <c r="A440" t="s">
         <v>245</v>
       </c>
@@ -14372,12 +14377,12 @@
         <v>1</v>
       </c>
       <c r="G440" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7">
       <c r="A441" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B441" t="s">
         <v>7</v>
@@ -14395,7 +14400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7">
       <c r="A442" t="s">
         <v>252</v>
       </c>
@@ -14415,12 +14420,12 @@
         <v>1</v>
       </c>
       <c r="G442" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7">
+      <c r="A443" t="s">
         <v>917</v>
-      </c>
-    </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A443" t="s">
-        <v>918</v>
       </c>
       <c r="B443" t="s">
         <v>7</v>
@@ -14438,10 +14443,10 @@
         <v>1</v>
       </c>
       <c r="G443" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7">
       <c r="A444" t="s">
         <v>251</v>
       </c>
@@ -14461,10 +14466,10 @@
         <v>1</v>
       </c>
       <c r="G444" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7">
       <c r="A445" t="s">
         <v>434</v>
       </c>
@@ -14484,10 +14489,10 @@
         <v>1</v>
       </c>
       <c r="G445" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7">
       <c r="A446" t="s">
         <v>419</v>
       </c>
@@ -14507,10 +14512,10 @@
         <v>0</v>
       </c>
       <c r="G446" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7">
       <c r="A447" t="s">
         <v>274</v>
       </c>
@@ -14521,7 +14526,7 @@
         <v>18</v>
       </c>
       <c r="D447" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="E447">
         <v>88</v>
@@ -14530,9 +14535,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7">
       <c r="A448" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B448" t="s">
         <v>7</v>
@@ -14541,7 +14546,7 @@
         <v>34</v>
       </c>
       <c r="D448" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="E448">
         <v>69</v>
@@ -14550,7 +14555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7">
       <c r="A449" t="s">
         <v>355</v>
       </c>
@@ -14561,7 +14566,7 @@
         <v>34</v>
       </c>
       <c r="D449" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="E449">
         <v>65</v>
@@ -14570,7 +14575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7">
       <c r="A450" t="s">
         <v>296</v>
       </c>
@@ -14593,7 +14598,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7">
       <c r="A451" t="s">
         <v>524</v>
       </c>
@@ -14616,7 +14621,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7">
       <c r="A452" t="s">
         <v>283</v>
       </c>
@@ -14639,7 +14644,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7">
       <c r="A453" t="s">
         <v>555</v>
       </c>
@@ -14662,7 +14667,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7">
       <c r="A454" t="s">
         <v>146</v>
       </c>
@@ -14685,7 +14690,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7">
       <c r="A455" t="s">
         <v>224</v>
       </c>
@@ -14705,12 +14710,12 @@
         <v>-1</v>
       </c>
       <c r="G455" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7">
       <c r="A456" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B456" t="s">
         <v>7</v>
@@ -14728,10 +14733,10 @@
         <v>-1</v>
       </c>
       <c r="G456" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7">
       <c r="A457" t="s">
         <v>310</v>
       </c>
@@ -14751,12 +14756,12 @@
         <v>-1</v>
       </c>
       <c r="G457" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7">
       <c r="A458" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B458" t="s">
         <v>7</v>
@@ -14765,7 +14770,7 @@
         <v>65</v>
       </c>
       <c r="D458" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E458">
         <v>72</v>
@@ -14774,10 +14779,10 @@
         <v>-1</v>
       </c>
       <c r="G458" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7">
       <c r="A459" t="s">
         <v>262</v>
       </c>
@@ -14800,7 +14805,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7">
       <c r="A460" t="s">
         <v>517</v>
       </c>
@@ -14823,18 +14828,18 @@
         <v>519</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7">
       <c r="A461" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B461" t="s">
         <v>7</v>
       </c>
       <c r="C461" t="s">
+        <v>755</v>
+      </c>
+      <c r="D461" t="s">
         <v>756</v>
-      </c>
-      <c r="D461" t="s">
-        <v>757</v>
       </c>
       <c r="E461">
         <v>64</v>
@@ -14843,12 +14848,12 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7">
       <c r="A462" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B462" t="s">
         <v>1266</v>
-      </c>
-      <c r="B462" t="s">
-        <v>1267</v>
       </c>
       <c r="C462" t="s">
         <v>15</v>
@@ -14863,7 +14868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7">
       <c r="A463" t="s">
         <v>270</v>
       </c>
@@ -14883,9 +14888,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7">
       <c r="A464" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B464" t="s">
         <v>91</v>
@@ -14903,9 +14908,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7">
       <c r="A465" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B465" t="s">
         <v>91</v>
@@ -14923,15 +14928,15 @@
         <v>-2</v>
       </c>
       <c r="G465" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7">
       <c r="A466" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B466" t="s">
         <v>1277</v>
-      </c>
-      <c r="B466" t="s">
-        <v>1278</v>
       </c>
       <c r="C466" t="s">
         <v>9</v>
@@ -14946,7 +14951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7">
       <c r="A467" t="s">
         <v>338</v>
       </c>
@@ -14954,10 +14959,10 @@
         <v>16</v>
       </c>
       <c r="C467" t="s">
+        <v>746</v>
+      </c>
+      <c r="D467" t="s">
         <v>747</v>
-      </c>
-      <c r="D467" t="s">
-        <v>748</v>
       </c>
       <c r="E467">
         <v>72</v>
@@ -14966,7 +14971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7">
       <c r="A468" t="s">
         <v>446</v>
       </c>
@@ -14989,9 +14994,9 @@
         <v>447</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7">
       <c r="A469" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B469" t="s">
         <v>16</v>
@@ -15009,10 +15014,10 @@
         <v>3</v>
       </c>
       <c r="G469" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7">
       <c r="A470" t="s">
         <v>353</v>
       </c>
@@ -15032,10 +15037,10 @@
         <v>3</v>
       </c>
       <c r="G470" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7">
       <c r="A471" t="s">
         <v>570</v>
       </c>
@@ -15058,9 +15063,9 @@
         <v>571</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7">
       <c r="A472" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B472" t="s">
         <v>16</v>
@@ -15078,10 +15083,10 @@
         <v>2</v>
       </c>
       <c r="G472" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7">
       <c r="A473" t="s">
         <v>515</v>
       </c>
@@ -15104,7 +15109,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7">
       <c r="A474" t="s">
         <v>520</v>
       </c>
@@ -15127,7 +15132,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7">
       <c r="A475" t="s">
         <v>575</v>
       </c>
@@ -15150,7 +15155,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7">
       <c r="A476" t="s">
         <v>583</v>
       </c>
@@ -15173,7 +15178,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7">
       <c r="A477" t="s">
         <v>599</v>
       </c>
@@ -15196,7 +15201,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7">
       <c r="A478" t="s">
         <v>359</v>
       </c>
@@ -15216,10 +15221,10 @@
         <v>1</v>
       </c>
       <c r="G478" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7">
       <c r="A479" t="s">
         <v>357</v>
       </c>
@@ -15239,12 +15244,12 @@
         <v>1</v>
       </c>
       <c r="G479" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7">
+      <c r="A480" t="s">
         <v>891</v>
-      </c>
-    </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A480" t="s">
-        <v>892</v>
       </c>
       <c r="B480" t="s">
         <v>16</v>
@@ -15253,7 +15258,7 @@
         <v>92</v>
       </c>
       <c r="D480" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E480">
         <v>60</v>
@@ -15262,12 +15267,12 @@
         <v>1</v>
       </c>
       <c r="G480" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7">
       <c r="A481" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B481" t="s">
         <v>16</v>
@@ -15285,10 +15290,10 @@
         <v>1</v>
       </c>
       <c r="G481" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7">
       <c r="A482" t="s">
         <v>438</v>
       </c>
@@ -15308,10 +15313,10 @@
         <v>1</v>
       </c>
       <c r="G482" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7">
       <c r="A483" t="s">
         <v>335</v>
       </c>
@@ -15331,10 +15336,10 @@
         <v>0</v>
       </c>
       <c r="G483" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7">
       <c r="A484" t="s">
         <v>161</v>
       </c>
@@ -15345,7 +15350,7 @@
         <v>92</v>
       </c>
       <c r="D484" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="E484">
         <v>88</v>
@@ -15354,9 +15359,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7">
       <c r="A485" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B485" t="s">
         <v>16</v>
@@ -15374,9 +15379,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7">
       <c r="A486" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B486" t="s">
         <v>16</v>
@@ -15394,9 +15399,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7">
       <c r="A487" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B487" t="s">
         <v>16</v>
@@ -15414,12 +15419,12 @@
         <v>-1</v>
       </c>
       <c r="G487" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7">
       <c r="A488" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B488" t="s">
         <v>16</v>
@@ -15437,21 +15442,21 @@
         <v>-1</v>
       </c>
       <c r="G488" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7">
       <c r="A489" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B489" t="s">
         <v>16</v>
       </c>
       <c r="C489" t="s">
+        <v>777</v>
+      </c>
+      <c r="D489" t="s">
         <v>778</v>
-      </c>
-      <c r="D489" t="s">
-        <v>779</v>
       </c>
       <c r="E489">
         <v>64</v>
@@ -15460,12 +15465,12 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7">
       <c r="A490" t="s">
+        <v>626</v>
+      </c>
+      <c r="B490" t="s">
         <v>627</v>
-      </c>
-      <c r="B490" t="s">
-        <v>628</v>
       </c>
       <c r="C490" t="s">
         <v>317</v>
@@ -15480,7 +15485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7">
       <c r="A491" t="s">
         <v>117</v>
       </c>
@@ -15500,10 +15505,10 @@
         <v>3</v>
       </c>
       <c r="G491" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7">
       <c r="A492" t="s">
         <v>218</v>
       </c>
@@ -15514,7 +15519,7 @@
         <v>405</v>
       </c>
       <c r="D492" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E492">
         <v>75</v>
@@ -15523,10 +15528,10 @@
         <v>2</v>
       </c>
       <c r="G492" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7">
       <c r="A493" t="s">
         <v>210</v>
       </c>
@@ -15549,7 +15554,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7">
       <c r="A494" t="s">
         <v>212</v>
       </c>
@@ -15572,9 +15577,9 @@
         <v>526</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7">
       <c r="A495" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B495" t="s">
         <v>87</v>
@@ -15592,10 +15597,10 @@
         <v>1</v>
       </c>
       <c r="G495" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7">
       <c r="A496" t="s">
         <v>246</v>
       </c>
@@ -15615,12 +15620,12 @@
         <v>1</v>
       </c>
       <c r="G496" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7">
       <c r="A497" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B497" t="s">
         <v>87</v>
@@ -15638,12 +15643,12 @@
         <v>0</v>
       </c>
       <c r="G497" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7">
       <c r="A498" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B498" t="s">
         <v>87</v>
@@ -15661,12 +15666,12 @@
         <v>0</v>
       </c>
       <c r="G498" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7">
       <c r="A499" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B499" t="s">
         <v>87</v>
@@ -15675,7 +15680,7 @@
         <v>40</v>
       </c>
       <c r="D499" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E499">
         <v>66</v>
@@ -15684,9 +15689,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7">
       <c r="A500" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B500" t="s">
         <v>87</v>
@@ -15704,7 +15709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7">
       <c r="A501" t="s">
         <v>463</v>
       </c>
@@ -15727,7 +15732,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7">
       <c r="A502" t="s">
         <v>480</v>
       </c>
@@ -15750,7 +15755,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7">
       <c r="A503" t="s">
         <v>295</v>
       </c>
@@ -15773,7 +15778,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7">
       <c r="A504" t="s">
         <v>549</v>
       </c>
@@ -15796,9 +15801,9 @@
         <v>550</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7">
       <c r="A505" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B505" t="s">
         <v>87</v>
@@ -15816,12 +15821,12 @@
         <v>-1</v>
       </c>
       <c r="G505" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7">
       <c r="A506" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B506" t="s">
         <v>87</v>
@@ -15839,10 +15844,10 @@
         <v>-1</v>
       </c>
       <c r="G506" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7">
       <c r="A507" t="s">
         <v>241</v>
       </c>
@@ -15862,10 +15867,10 @@
         <v>-1</v>
       </c>
       <c r="G507" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7">
       <c r="A508" t="s">
         <v>248</v>
       </c>
@@ -15885,10 +15890,10 @@
         <v>-1</v>
       </c>
       <c r="G508" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7">
       <c r="A509" t="s">
         <v>468</v>
       </c>
@@ -15911,7 +15916,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7">
       <c r="A510" t="s">
         <v>439</v>
       </c>
@@ -15934,7 +15939,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7">
       <c r="A511" t="s">
         <v>141</v>
       </c>
@@ -15957,7 +15962,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7">
       <c r="A512" t="s">
         <v>235</v>
       </c>
@@ -15977,15 +15982,15 @@
         <v>-3</v>
       </c>
       <c r="G512" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7">
       <c r="A513" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B513" t="s">
         <v>1294</v>
-      </c>
-      <c r="B513" t="s">
-        <v>1295</v>
       </c>
       <c r="C513" t="s">
         <v>28</v>
@@ -16000,7 +16005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7">
       <c r="A514" t="s">
         <v>278</v>
       </c>
@@ -16020,12 +16025,12 @@
         <v>2</v>
       </c>
       <c r="G514" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7">
       <c r="A515" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B515" t="s">
         <v>86</v>
@@ -16043,12 +16048,12 @@
         <v>2</v>
       </c>
       <c r="G515" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7">
       <c r="A516" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B516" t="s">
         <v>86</v>
@@ -16066,10 +16071,10 @@
         <v>1</v>
       </c>
       <c r="G516" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7">
       <c r="A517" t="s">
         <v>306</v>
       </c>
@@ -16089,12 +16094,12 @@
         <v>0</v>
       </c>
       <c r="G517" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7">
       <c r="A518" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B518" t="s">
         <v>86</v>
@@ -16103,7 +16108,7 @@
         <v>11</v>
       </c>
       <c r="D518" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="E518">
         <v>79</v>
@@ -16112,9 +16117,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7">
       <c r="A519" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B519" t="s">
         <v>86</v>
@@ -16132,10 +16137,10 @@
         <v>-1</v>
       </c>
       <c r="G519" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7">
       <c r="A520" t="s">
         <v>284</v>
       </c>
@@ -16155,10 +16160,10 @@
         <v>-1</v>
       </c>
       <c r="G520" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7">
       <c r="A521" t="s">
         <v>215</v>
       </c>
@@ -16178,12 +16183,12 @@
         <v>-1</v>
       </c>
       <c r="G521" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7">
       <c r="A522" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B522" t="s">
         <v>86</v>
@@ -16201,10 +16206,10 @@
         <v>-1</v>
       </c>
       <c r="G522" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="523" spans="1:7">
       <c r="A523" t="s">
         <v>216</v>
       </c>
@@ -16224,12 +16229,12 @@
         <v>-1</v>
       </c>
       <c r="G523" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7">
       <c r="A524" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B524" t="s">
         <v>86</v>
@@ -16247,12 +16252,12 @@
         <v>-1</v>
       </c>
       <c r="G524" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7">
       <c r="A525" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B525" t="s">
         <v>86</v>
@@ -16270,12 +16275,12 @@
         <v>-1</v>
       </c>
       <c r="G525" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="526" spans="1:7">
       <c r="A526" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B526" t="s">
         <v>86</v>
@@ -16293,12 +16298,12 @@
         <v>-1</v>
       </c>
       <c r="G526" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="527" spans="1:7">
       <c r="A527" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B527" t="s">
         <v>86</v>
@@ -16316,10 +16321,10 @@
         <v>-1</v>
       </c>
       <c r="G527" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="528" spans="1:7">
       <c r="A528" t="s">
         <v>323</v>
       </c>
@@ -16339,12 +16344,12 @@
         <v>-1</v>
       </c>
       <c r="G528" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7">
       <c r="A529" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B529" t="s">
         <v>86</v>
@@ -16362,12 +16367,12 @@
         <v>-1</v>
       </c>
       <c r="G529" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7">
       <c r="A530" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B530" t="s">
         <v>86</v>
@@ -16385,12 +16390,12 @@
         <v>-1</v>
       </c>
       <c r="G530" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7">
       <c r="A531" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B531" t="s">
         <v>86</v>
@@ -16399,7 +16404,7 @@
         <v>9</v>
       </c>
       <c r="D531" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="E531">
         <v>69</v>
@@ -16408,10 +16413,10 @@
         <v>-1</v>
       </c>
       <c r="G531" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7">
       <c r="A532" t="s">
         <v>301</v>
       </c>
@@ -16431,10 +16436,10 @@
         <v>-2</v>
       </c>
       <c r="G532" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7">
       <c r="A533" t="s">
         <v>149</v>
       </c>
@@ -16454,12 +16459,12 @@
         <v>-2</v>
       </c>
       <c r="G533" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="534" spans="1:7">
       <c r="A534" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B534" t="s">
         <v>86</v>
@@ -16468,7 +16473,7 @@
         <v>23</v>
       </c>
       <c r="D534" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E534">
         <v>64</v>
@@ -16477,10 +16482,10 @@
         <v>-2</v>
       </c>
       <c r="G534" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7">
       <c r="A535" t="s">
         <v>303</v>
       </c>
@@ -16500,12 +16505,12 @@
         <v>-2</v>
       </c>
       <c r="G535" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7">
       <c r="A536" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B536" t="s">
         <v>86</v>
@@ -16523,10 +16528,10 @@
         <v>-2</v>
       </c>
       <c r="G536" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7">
       <c r="A537" t="s">
         <v>313</v>
       </c>
@@ -16546,10 +16551,10 @@
         <v>-2</v>
       </c>
       <c r="G537" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7">
       <c r="A538" t="s">
         <v>334</v>
       </c>
@@ -16569,10 +16574,10 @@
         <v>-2</v>
       </c>
       <c r="G538" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7">
       <c r="A539" t="s">
         <v>104</v>
       </c>
@@ -16592,9 +16597,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7">
       <c r="A540" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B540" t="s">
         <v>12</v>
@@ -16612,9 +16617,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7">
       <c r="A541" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B541" t="s">
         <v>12</v>
@@ -16632,7 +16637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7">
       <c r="A542" t="s">
         <v>148</v>
       </c>
@@ -16652,10 +16657,10 @@
         <v>2</v>
       </c>
       <c r="G542" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7">
       <c r="A543" t="s">
         <v>489</v>
       </c>
@@ -16678,7 +16683,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7">
       <c r="A544" t="s">
         <v>213</v>
       </c>
@@ -16701,7 +16706,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7">
       <c r="A545" t="s">
         <v>233</v>
       </c>
@@ -16721,12 +16726,12 @@
         <v>1</v>
       </c>
       <c r="G545" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7">
       <c r="A546" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B546" t="s">
         <v>75</v>
@@ -16744,10 +16749,10 @@
         <v>0</v>
       </c>
       <c r="G546" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="547" spans="1:7">
       <c r="A547" t="s">
         <v>440</v>
       </c>
@@ -16770,7 +16775,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7">
       <c r="A548" t="s">
         <v>373</v>
       </c>
@@ -16793,7 +16798,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7">
       <c r="A549" t="s">
         <v>605</v>
       </c>
@@ -16816,7 +16821,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7">
       <c r="A550" t="s">
         <v>382</v>
       </c>
@@ -16836,10 +16841,10 @@
         <v>-1</v>
       </c>
       <c r="G550" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="551" spans="1:7">
       <c r="A551" t="s">
         <v>151</v>
       </c>
@@ -16859,10 +16864,10 @@
         <v>-1</v>
       </c>
       <c r="G551" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7">
       <c r="A552" t="s">
         <v>217</v>
       </c>
@@ -16882,12 +16887,12 @@
         <v>-1</v>
       </c>
       <c r="G552" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7">
       <c r="A553" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B553" t="s">
         <v>75</v>
@@ -16905,12 +16910,12 @@
         <v>-1</v>
       </c>
       <c r="G553" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7">
       <c r="A554" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B554" t="s">
         <v>75</v>
@@ -16928,12 +16933,12 @@
         <v>-1</v>
       </c>
       <c r="G554" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7">
       <c r="A555" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B555" t="s">
         <v>75</v>
@@ -16951,12 +16956,12 @@
         <v>-1</v>
       </c>
       <c r="G555" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7">
       <c r="A556" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B556" t="s">
         <v>75</v>
@@ -16974,12 +16979,12 @@
         <v>-2</v>
       </c>
       <c r="G556" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="557" spans="1:7">
       <c r="A557" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B557" t="s">
         <v>75</v>
@@ -16997,12 +17002,12 @@
         <v>-2</v>
       </c>
       <c r="G557" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="558" spans="1:7">
       <c r="A558" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B558" t="s">
         <v>56</v>
@@ -17020,10 +17025,10 @@
         <v>3</v>
       </c>
       <c r="G558" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="559" spans="1:7">
       <c r="A559" t="s">
         <v>455</v>
       </c>
@@ -17046,7 +17051,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7">
       <c r="A560" t="s">
         <v>230</v>
       </c>
@@ -17066,10 +17071,10 @@
         <v>2</v>
       </c>
       <c r="G560" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7">
       <c r="A561" t="s">
         <v>330</v>
       </c>
@@ -17089,12 +17094,12 @@
         <v>2</v>
       </c>
       <c r="G561" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7">
       <c r="A562" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B562" t="s">
         <v>56</v>
@@ -17112,12 +17117,12 @@
         <v>2</v>
       </c>
       <c r="G562" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="563" spans="1:7">
       <c r="A563" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B563" t="s">
         <v>56</v>
@@ -17135,12 +17140,12 @@
         <v>2</v>
       </c>
       <c r="G563" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="564" spans="1:7">
       <c r="A564" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B564" t="s">
         <v>56</v>
@@ -17158,10 +17163,10 @@
         <v>1</v>
       </c>
       <c r="G564" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="565" spans="1:7">
       <c r="A565" t="s">
         <v>240</v>
       </c>
@@ -17181,12 +17186,12 @@
         <v>1</v>
       </c>
       <c r="G565" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="566" spans="1:7">
       <c r="A566" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B566" t="s">
         <v>56</v>
@@ -17195,7 +17200,7 @@
         <v>11</v>
       </c>
       <c r="D566" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E566">
         <v>68</v>
@@ -17204,12 +17209,12 @@
         <v>1</v>
       </c>
       <c r="G566" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="567" spans="1:7">
       <c r="A567" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B567" t="s">
         <v>56</v>
@@ -17227,12 +17232,12 @@
         <v>0</v>
       </c>
       <c r="G567" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="568" spans="1:7">
       <c r="A568" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B568" t="s">
         <v>56</v>
@@ -17250,12 +17255,12 @@
         <v>0</v>
       </c>
       <c r="G568" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="569" spans="1:7">
       <c r="A569" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B569" t="s">
         <v>56</v>
@@ -17264,7 +17269,7 @@
         <v>11</v>
       </c>
       <c r="D569" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="E569">
         <v>68</v>
@@ -17273,7 +17278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:7">
       <c r="A570" t="s">
         <v>443</v>
       </c>
@@ -17293,9 +17298,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7">
       <c r="A571" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B571" t="s">
         <v>56</v>
@@ -17304,7 +17309,7 @@
         <v>34</v>
       </c>
       <c r="D571" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="E571">
         <v>74</v>
@@ -17313,7 +17318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:7">
       <c r="A572" t="s">
         <v>309</v>
       </c>
@@ -17333,10 +17338,10 @@
         <v>-1</v>
       </c>
       <c r="G572" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="573" spans="1:7">
       <c r="A573" t="s">
         <v>325</v>
       </c>
@@ -17356,10 +17361,10 @@
         <v>-1</v>
       </c>
       <c r="G573" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="574" spans="1:7">
       <c r="A574" t="s">
         <v>172</v>
       </c>
@@ -17379,10 +17384,10 @@
         <v>-1</v>
       </c>
       <c r="G574" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="575" spans="1:7">
       <c r="A575" t="s">
         <v>491</v>
       </c>
@@ -17405,18 +17410,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7">
       <c r="A576" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B576" t="s">
         <v>1386</v>
-      </c>
-      <c r="B576" t="s">
-        <v>1387</v>
       </c>
       <c r="C576" t="s">
         <v>34</v>
       </c>
       <c r="D576" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="E576">
         <v>82</v>
@@ -17425,12 +17430,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:7">
       <c r="A577" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B577" t="s">
         <v>1287</v>
-      </c>
-      <c r="B577" t="s">
-        <v>1288</v>
       </c>
       <c r="C577" t="s">
         <v>15</v>
@@ -17445,7 +17450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7">
       <c r="A578" t="s">
         <v>512</v>
       </c>
@@ -17468,7 +17473,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:7">
       <c r="A579" t="s">
         <v>152</v>
       </c>
@@ -17488,10 +17493,10 @@
         <v>1</v>
       </c>
       <c r="G579" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="580" spans="1:7">
       <c r="A580" t="s">
         <v>311</v>
       </c>
@@ -17511,12 +17516,12 @@
         <v>1</v>
       </c>
       <c r="G580" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="581" spans="1:7">
       <c r="A581" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B581" t="s">
         <v>74</v>
@@ -17534,12 +17539,12 @@
         <v>1</v>
       </c>
       <c r="G581" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="582" spans="1:7">
       <c r="A582" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B582" t="s">
         <v>74</v>
@@ -17557,12 +17562,12 @@
         <v>1</v>
       </c>
       <c r="G582" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="583" spans="1:7">
       <c r="A583" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B583" t="s">
         <v>74</v>
@@ -17580,12 +17585,12 @@
         <v>1</v>
       </c>
       <c r="G583" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="584" spans="1:7">
       <c r="A584" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B584" t="s">
         <v>74</v>
@@ -17603,12 +17608,12 @@
         <v>1</v>
       </c>
       <c r="G584" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="585" spans="1:7">
       <c r="A585" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B585" t="s">
         <v>74</v>
@@ -17626,10 +17631,10 @@
         <v>-1</v>
       </c>
       <c r="G585" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="586" spans="1:7">
       <c r="A586" t="s">
         <v>153</v>
       </c>
@@ -17649,12 +17654,12 @@
         <v>-1</v>
       </c>
       <c r="G586" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="587" spans="1:7">
       <c r="A587" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B587" t="s">
         <v>74</v>
@@ -17672,12 +17677,12 @@
         <v>-1</v>
       </c>
       <c r="G587" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="588" spans="1:7">
       <c r="A588" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B588" t="s">
         <v>74</v>
@@ -17695,10 +17700,10 @@
         <v>-1</v>
       </c>
       <c r="G588" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="589" spans="1:7">
       <c r="A589" t="s">
         <v>324</v>
       </c>
@@ -17718,12 +17723,12 @@
         <v>-1</v>
       </c>
       <c r="G589" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="590" spans="1:7">
       <c r="A590" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B590" t="s">
         <v>74</v>
@@ -17741,10 +17746,10 @@
         <v>-1</v>
       </c>
       <c r="G590" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="591" spans="1:7">
       <c r="A591" t="s">
         <v>333</v>
       </c>
@@ -17764,10 +17769,10 @@
         <v>-1</v>
       </c>
       <c r="G591" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="592" spans="1:7">
       <c r="A592" t="s">
         <v>326</v>
       </c>
@@ -17787,10 +17792,10 @@
         <v>-1</v>
       </c>
       <c r="G592" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="593" spans="1:7">
       <c r="A593" t="s">
         <v>221</v>
       </c>
@@ -17810,12 +17815,12 @@
         <v>-2</v>
       </c>
       <c r="G593" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="594" spans="1:7">
       <c r="A594" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B594" t="s">
         <v>35</v>
@@ -17833,12 +17838,12 @@
         <v>4</v>
       </c>
       <c r="G594" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="595" spans="1:7">
       <c r="A595" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B595" t="s">
         <v>35</v>
@@ -17856,12 +17861,12 @@
         <v>3</v>
       </c>
       <c r="G595" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="596" spans="1:7">
       <c r="A596" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B596" t="s">
         <v>35</v>
@@ -17879,10 +17884,10 @@
         <v>3</v>
       </c>
       <c r="G596" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="597" spans="1:7">
       <c r="A597" t="s">
         <v>163</v>
       </c>
@@ -17902,10 +17907,10 @@
         <v>2</v>
       </c>
       <c r="G597" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="598" spans="1:7">
       <c r="A598" t="s">
         <v>166</v>
       </c>
@@ -17925,10 +17930,10 @@
         <v>2</v>
       </c>
       <c r="G598" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="599" spans="1:7">
       <c r="A599" t="s">
         <v>444</v>
       </c>
@@ -17948,12 +17953,12 @@
         <v>2</v>
       </c>
       <c r="G599" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="600" spans="1:7">
       <c r="A600" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B600" t="s">
         <v>35</v>
@@ -17971,12 +17976,12 @@
         <v>1</v>
       </c>
       <c r="G600" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="601" spans="1:7">
       <c r="A601" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B601" t="s">
         <v>35</v>
@@ -17994,10 +17999,10 @@
         <v>1</v>
       </c>
       <c r="G601" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="602" spans="1:7">
       <c r="A602" t="s">
         <v>231</v>
       </c>
@@ -18017,10 +18022,10 @@
         <v>1</v>
       </c>
       <c r="G602" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="603" spans="1:7">
       <c r="A603" t="s">
         <v>237</v>
       </c>
@@ -18040,12 +18045,12 @@
         <v>1</v>
       </c>
       <c r="G603" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="604" spans="1:7">
       <c r="A604" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B604" t="s">
         <v>35</v>
@@ -18063,10 +18068,10 @@
         <v>1</v>
       </c>
       <c r="G604" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="605" spans="1:7">
       <c r="A605" t="s">
         <v>352</v>
       </c>
@@ -18086,12 +18091,12 @@
         <v>1</v>
       </c>
       <c r="G605" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="606" spans="1:7">
       <c r="A606" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B606" t="s">
         <v>35</v>
@@ -18109,12 +18114,12 @@
         <v>-1</v>
       </c>
       <c r="G606" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="607" spans="1:7">
       <c r="A607" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B607" t="s">
         <v>35</v>
@@ -18132,12 +18137,12 @@
         <v>-1</v>
       </c>
       <c r="G607" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="608" spans="1:7">
       <c r="A608" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B608" t="s">
         <v>35</v>
@@ -18155,15 +18160,15 @@
         <v>-1</v>
       </c>
       <c r="G608" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="609" spans="1:6">
       <c r="A609" t="s">
+        <v>911</v>
+      </c>
+      <c r="B609" t="s">
         <v>912</v>
-      </c>
-      <c r="B609" t="s">
-        <v>913</v>
       </c>
       <c r="C609" t="s">
         <v>13</v>
@@ -18178,9 +18183,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:6">
       <c r="A610" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B610" t="s">
         <v>427</v>
@@ -18198,9 +18203,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:6">
       <c r="A611" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B611" t="s">
         <v>427</v>
@@ -18218,12 +18223,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:6">
       <c r="A612" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B612" t="s">
         <v>1340</v>
-      </c>
-      <c r="B612" t="s">
-        <v>1341</v>
       </c>
       <c r="C612" t="s">
         <v>64</v>
@@ -18243,5 +18248,10 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>